--- a/aka-Tolob-files/отчёты/7-ОСВ по счету касса.xlsx
+++ b/aka-Tolob-files/отчёты/7-ОСВ по счету касса.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Новая папка\ФЭУ Флеш\1-311225\документы\Отчёты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\FEU\02-report-helpers\aka-Tolob-files\отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20736" windowHeight="11760" tabRatio="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20736" windowHeight="11760" tabRatio="272" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Счет</t>
   </si>
@@ -88,6 +89,99 @@
   </si>
   <si>
     <t>Баргардонидани музди мехнати  барзиёд гирифта шуда</t>
+  </si>
+  <si>
+    <t>касса</t>
+  </si>
+  <si>
+    <t>банк</t>
+  </si>
+  <si>
+    <t>ддс</t>
+  </si>
+  <si>
+    <t>дебиторская задолженность персонала</t>
+  </si>
+  <si>
+    <t>фио</t>
+  </si>
+  <si>
+    <t>товары</t>
+  </si>
+  <si>
+    <t>наименование товаров</t>
+  </si>
+  <si>
+    <t>наименование ос</t>
+  </si>
+  <si>
+    <t>счета к оплате</t>
+  </si>
+  <si>
+    <t>наименование контрагента</t>
+  </si>
+  <si>
+    <t>зп</t>
+  </si>
+  <si>
+    <t>авансы выданные</t>
+  </si>
+  <si>
+    <t>МБП</t>
+  </si>
+  <si>
+    <t>наименование малоценка</t>
+  </si>
+  <si>
+    <t>износ  основных средств</t>
+  </si>
+  <si>
+    <t>основные средства</t>
+  </si>
+  <si>
+    <t>НМА</t>
+  </si>
+  <si>
+    <t>амортизация НМА</t>
+  </si>
+  <si>
+    <t>наименование программы, вебсайта</t>
+  </si>
+  <si>
+    <t>авансы полученные</t>
+  </si>
+  <si>
+    <t>Депонентҳо барои пардохт</t>
+  </si>
+  <si>
+    <t>андоз</t>
+  </si>
+  <si>
+    <t>наименование налога</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ҷорӣ </t>
+  </si>
+  <si>
+    <t>расходы</t>
+  </si>
+  <si>
+    <t>наименование статей расхода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">свод  дохода и расхода </t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>наименование финансирования</t>
+  </si>
+  <si>
+    <t>наименование статей финансирования / дохода</t>
+  </si>
+  <si>
+    <t>финансирование</t>
   </si>
 </sst>
 </file>
@@ -140,7 +234,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +249,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F6EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -282,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -308,6 +414,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -318,59 +475,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -945,8 +1062,8 @@
   </sheetPr>
   <dimension ref="A1:T202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q188" sqref="Q188:T188"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J197" sqref="J197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -973,74 +1090,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
     </row>
     <row r="2" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:19" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:19" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
@@ -1226,208 +1343,215 @@
     <row r="186" spans="1:20" ht="10.199999999999999" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="187" spans="1:20" s="1" customFormat="1" ht="10.199999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="188" spans="1:20" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="12" t="s">
+      <c r="A188" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B188" s="12"/>
-      <c r="C188" s="12"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="13" t="s">
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="20"/>
+      <c r="F188" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G188" s="13"/>
-      <c r="H188" s="13"/>
-      <c r="I188" s="13"/>
-      <c r="J188" s="13"/>
-      <c r="K188" s="13" t="s">
+      <c r="G188" s="29"/>
+      <c r="H188" s="29"/>
+      <c r="I188" s="29"/>
+      <c r="J188" s="29"/>
+      <c r="K188" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="L188" s="13"/>
-      <c r="M188" s="13"/>
-      <c r="N188" s="13"/>
-      <c r="O188" s="13"/>
-      <c r="P188" s="13"/>
-      <c r="Q188" s="13" t="s">
+      <c r="L188" s="29"/>
+      <c r="M188" s="29"/>
+      <c r="N188" s="29"/>
+      <c r="O188" s="29"/>
+      <c r="P188" s="29"/>
+      <c r="Q188" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="R188" s="13"/>
-      <c r="S188" s="13"/>
-      <c r="T188" s="13"/>
+      <c r="R188" s="29"/>
+      <c r="S188" s="29"/>
+      <c r="T188" s="29"/>
     </row>
     <row r="189" spans="1:20" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="12" t="s">
+      <c r="A189" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B189" s="12"/>
-      <c r="C189" s="12"/>
-      <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="14" t="s">
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="20"/>
+      <c r="F189" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G189" s="14"/>
-      <c r="H189" s="14"/>
-      <c r="I189" s="14" t="s">
+      <c r="G189" s="17"/>
+      <c r="H189" s="17"/>
+      <c r="I189" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J189" s="14"/>
-      <c r="K189" s="14" t="s">
+      <c r="J189" s="17"/>
+      <c r="K189" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L189" s="14"/>
-      <c r="M189" s="14"/>
-      <c r="N189" s="14" t="s">
+      <c r="L189" s="17"/>
+      <c r="M189" s="17"/>
+      <c r="N189" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O189" s="14"/>
-      <c r="P189" s="14"/>
-      <c r="Q189" s="14" t="s">
+      <c r="O189" s="17"/>
+      <c r="P189" s="17"/>
+      <c r="Q189" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="R189" s="14"/>
-      <c r="S189" s="14" t="s">
+      <c r="R189" s="17"/>
+      <c r="S189" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="T189" s="14"/>
+      <c r="T189" s="17"/>
     </row>
     <row r="190" spans="1:20" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="12" t="s">
+      <c r="A190" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B190" s="12"/>
-      <c r="C190" s="12"/>
-      <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
-      <c r="F190" s="15"/>
-      <c r="G190" s="21"/>
-      <c r="H190" s="16"/>
-      <c r="I190" s="15"/>
-      <c r="J190" s="16"/>
-      <c r="K190" s="15"/>
-      <c r="L190" s="21"/>
-      <c r="M190" s="16"/>
-      <c r="N190" s="15"/>
-      <c r="O190" s="21"/>
-      <c r="P190" s="16"/>
-      <c r="Q190" s="15"/>
-      <c r="R190" s="16"/>
-      <c r="S190" s="15"/>
-      <c r="T190" s="16"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="20"/>
+      <c r="F190" s="18"/>
+      <c r="G190" s="25"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="18"/>
+      <c r="J190" s="19"/>
+      <c r="K190" s="18"/>
+      <c r="L190" s="25"/>
+      <c r="M190" s="19"/>
+      <c r="N190" s="18"/>
+      <c r="O190" s="25"/>
+      <c r="P190" s="19"/>
+      <c r="Q190" s="18"/>
+      <c r="R190" s="19"/>
+      <c r="S190" s="18"/>
+      <c r="T190" s="19"/>
     </row>
     <row r="191" spans="1:20" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="17" t="s">
+      <c r="A191" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B191" s="17"/>
-      <c r="C191" s="17"/>
-      <c r="D191" s="17"/>
-      <c r="E191" s="17"/>
-      <c r="F191" s="18">
+      <c r="B191" s="21"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="22">
         <v>472.59</v>
       </c>
-      <c r="G191" s="18"/>
-      <c r="H191" s="18"/>
+      <c r="G191" s="22"/>
+      <c r="H191" s="22"/>
       <c r="I191" s="2"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="19">
+      <c r="K191" s="23">
         <v>12408078.539999999</v>
       </c>
-      <c r="L191" s="19"/>
-      <c r="M191" s="19"/>
-      <c r="N191" s="19">
+      <c r="L191" s="23"/>
+      <c r="M191" s="23"/>
+      <c r="N191" s="23">
         <f>N192</f>
         <v>12388412.699999999</v>
       </c>
-      <c r="O191" s="19"/>
-      <c r="P191" s="19"/>
-      <c r="Q191" s="20">
+      <c r="O191" s="23"/>
+      <c r="P191" s="23"/>
+      <c r="Q191" s="24">
         <f>F191+K191-N191</f>
         <v>20138.429999999702</v>
       </c>
-      <c r="R191" s="20"/>
+      <c r="R191" s="24"/>
       <c r="S191" s="2"/>
       <c r="T191" s="3"/>
     </row>
     <row r="192" spans="1:20" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="22" t="s">
+      <c r="A192" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B192" s="23"/>
-      <c r="C192" s="23"/>
-      <c r="D192" s="23"/>
-      <c r="E192" s="23"/>
-      <c r="F192" s="24">
+      <c r="B192" s="13"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="14">
         <v>472.59</v>
       </c>
-      <c r="G192" s="24"/>
-      <c r="H192" s="24"/>
+      <c r="G192" s="14"/>
+      <c r="H192" s="14"/>
       <c r="I192" s="4"/>
       <c r="J192" s="5"/>
-      <c r="K192" s="25">
-        <f>K194+K197+K201+K193</f>
-        <v>12408078.540000001</v>
-      </c>
-      <c r="L192" s="25"/>
-      <c r="M192" s="25"/>
-      <c r="N192" s="25">
+      <c r="K192" s="15">
+        <f>SUM(K193:M202)</f>
+        <v>12405325.76</v>
+      </c>
+      <c r="L192" s="15"/>
+      <c r="M192" s="15"/>
+      <c r="N192" s="15">
         <f>N195+N196+N198+N199+N200+N202</f>
         <v>12388412.699999999</v>
       </c>
-      <c r="O192" s="25"/>
-      <c r="P192" s="25"/>
-      <c r="Q192" s="26">
+      <c r="O192" s="15"/>
+      <c r="P192" s="15"/>
+      <c r="Q192" s="16">
         <f>F192+K192-N192</f>
-        <v>20138.430000001565</v>
-      </c>
-      <c r="R192" s="26"/>
+        <v>17385.650000000373</v>
+      </c>
+      <c r="R192" s="16"/>
       <c r="S192" s="4"/>
       <c r="T192" s="5"/>
     </row>
     <row r="193" spans="1:20" ht="22.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A193" s="27" t="s">
+      <c r="A193" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B193" s="27"/>
-      <c r="C193" s="27"/>
-      <c r="D193" s="27"/>
-      <c r="E193" s="27"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
       <c r="F193" s="6"/>
       <c r="G193" s="7"/>
       <c r="H193" s="8"/>
-      <c r="I193" s="6"/>
-      <c r="J193" s="8"/>
-      <c r="K193" s="28">
-        <v>4853.97</v>
-      </c>
-      <c r="L193" s="28"/>
-      <c r="M193" s="28"/>
+      <c r="I193" s="30">
+        <v>5207.92</v>
+      </c>
+      <c r="J193" s="31"/>
+      <c r="K193" s="11">
+        <v>2101.19</v>
+      </c>
+      <c r="L193" s="11"/>
+      <c r="M193" s="11"/>
       <c r="N193" s="6"/>
-      <c r="O193" s="7"/>
+      <c r="O193" s="7">
+        <v>2157.64</v>
+      </c>
       <c r="P193" s="8"/>
       <c r="Q193" s="6"/>
       <c r="R193" s="8"/>
       <c r="S193" s="6"/>
-      <c r="T193" s="8"/>
+      <c r="T193" s="32">
+        <f>I193+O193-K193</f>
+        <v>5264.369999999999</v>
+      </c>
     </row>
     <row r="194" spans="1:20" ht="22.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A194" s="27" t="s">
+      <c r="A194" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B194" s="27"/>
-      <c r="C194" s="27"/>
-      <c r="D194" s="27"/>
-      <c r="E194" s="27"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
       <c r="F194" s="6"/>
       <c r="G194" s="7"/>
       <c r="H194" s="8"/>
       <c r="I194" s="6"/>
       <c r="J194" s="8"/>
-      <c r="K194" s="28">
+      <c r="K194" s="11">
         <v>1201439.79</v>
       </c>
-      <c r="L194" s="28"/>
-      <c r="M194" s="28"/>
+      <c r="L194" s="11"/>
+      <c r="M194" s="11"/>
       <c r="N194" s="6"/>
       <c r="O194" s="7"/>
       <c r="P194" s="8"/>
@@ -1436,14 +1560,14 @@
       <c r="S194" s="6"/>
       <c r="T194" s="8"/>
     </row>
-    <row r="195" spans="1:20" ht="24.6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A195" s="27" t="s">
+    <row r="195" spans="1:20" ht="10.199999999999999" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A195" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B195" s="27"/>
-      <c r="C195" s="27"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
       <c r="F195" s="6"/>
       <c r="G195" s="7"/>
       <c r="H195" s="8"/>
@@ -1452,24 +1576,24 @@
       <c r="K195" s="6"/>
       <c r="L195" s="7"/>
       <c r="M195" s="8"/>
-      <c r="N195" s="28">
+      <c r="N195" s="11">
         <v>2012824.26</v>
       </c>
-      <c r="O195" s="28"/>
-      <c r="P195" s="28"/>
+      <c r="O195" s="11"/>
+      <c r="P195" s="11"/>
       <c r="Q195" s="6"/>
       <c r="R195" s="8"/>
       <c r="S195" s="6"/>
       <c r="T195" s="8"/>
     </row>
     <row r="196" spans="1:20" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A196" s="29" t="s">
+      <c r="A196" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B196" s="27"/>
-      <c r="C196" s="27"/>
-      <c r="D196" s="27"/>
-      <c r="E196" s="27"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
       <c r="F196" s="6"/>
       <c r="G196" s="7"/>
       <c r="H196" s="8"/>
@@ -1478,34 +1602,34 @@
       <c r="K196" s="6"/>
       <c r="L196" s="7"/>
       <c r="M196" s="8"/>
-      <c r="N196" s="28">
+      <c r="N196" s="11">
         <v>5000</v>
       </c>
-      <c r="O196" s="28"/>
-      <c r="P196" s="28"/>
+      <c r="O196" s="11"/>
+      <c r="P196" s="11"/>
       <c r="Q196" s="6"/>
       <c r="R196" s="8"/>
       <c r="S196" s="6"/>
       <c r="T196" s="8"/>
     </row>
-    <row r="197" spans="1:20" ht="22.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A197" s="27" t="s">
+    <row r="197" spans="1:20" ht="10.199999999999999" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A197" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B197" s="27"/>
-      <c r="C197" s="27"/>
-      <c r="D197" s="27"/>
-      <c r="E197" s="27"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
       <c r="F197" s="6"/>
       <c r="G197" s="7"/>
       <c r="H197" s="8"/>
       <c r="I197" s="6"/>
       <c r="J197" s="8"/>
-      <c r="K197" s="28">
+      <c r="K197" s="11">
         <v>940534.78</v>
       </c>
-      <c r="L197" s="28"/>
-      <c r="M197" s="28"/>
+      <c r="L197" s="11"/>
+      <c r="M197" s="11"/>
       <c r="N197" s="6"/>
       <c r="O197" s="7"/>
       <c r="P197" s="8"/>
@@ -1515,13 +1639,13 @@
       <c r="T197" s="8"/>
     </row>
     <row r="198" spans="1:20" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A198" s="29" t="s">
+      <c r="A198" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B198" s="27"/>
-      <c r="C198" s="27"/>
-      <c r="D198" s="27"/>
-      <c r="E198" s="27"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="10"/>
       <c r="F198" s="6"/>
       <c r="G198" s="7"/>
       <c r="H198" s="8"/>
@@ -1530,24 +1654,24 @@
       <c r="K198" s="6"/>
       <c r="L198" s="7"/>
       <c r="M198" s="8"/>
-      <c r="N198" s="28">
+      <c r="N198" s="11">
         <v>21400</v>
       </c>
-      <c r="O198" s="28"/>
-      <c r="P198" s="28"/>
+      <c r="O198" s="11"/>
+      <c r="P198" s="11"/>
       <c r="Q198" s="6"/>
       <c r="R198" s="8"/>
       <c r="S198" s="6"/>
       <c r="T198" s="8"/>
     </row>
-    <row r="199" spans="1:20" ht="33" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A199" s="29" t="s">
+    <row r="199" spans="1:20" ht="10.199999999999999" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A199" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B199" s="27"/>
-      <c r="C199" s="27"/>
-      <c r="D199" s="27"/>
-      <c r="E199" s="27"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
       <c r="F199" s="6"/>
       <c r="G199" s="7"/>
       <c r="H199" s="8"/>
@@ -1556,24 +1680,24 @@
       <c r="K199" s="6"/>
       <c r="L199" s="7"/>
       <c r="M199" s="8"/>
-      <c r="N199" s="28">
+      <c r="N199" s="11">
         <v>2231843.0299999998</v>
       </c>
-      <c r="O199" s="28"/>
-      <c r="P199" s="28"/>
+      <c r="O199" s="11"/>
+      <c r="P199" s="11"/>
       <c r="Q199" s="6"/>
       <c r="R199" s="8"/>
       <c r="S199" s="6"/>
       <c r="T199" s="8"/>
     </row>
     <row r="200" spans="1:20" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A200" s="29" t="s">
+      <c r="A200" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B200" s="27"/>
-      <c r="C200" s="27"/>
-      <c r="D200" s="27"/>
-      <c r="E200" s="27"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
       <c r="F200" s="6"/>
       <c r="G200" s="7"/>
       <c r="H200" s="8"/>
@@ -1582,34 +1706,34 @@
       <c r="K200" s="6"/>
       <c r="L200" s="7"/>
       <c r="M200" s="8"/>
-      <c r="N200" s="28">
+      <c r="N200" s="11">
         <v>7233110.4100000001</v>
       </c>
-      <c r="O200" s="28"/>
-      <c r="P200" s="28"/>
+      <c r="O200" s="11"/>
+      <c r="P200" s="11"/>
       <c r="Q200" s="6"/>
       <c r="R200" s="8"/>
       <c r="S200" s="6"/>
       <c r="T200" s="8"/>
     </row>
     <row r="201" spans="1:20" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A201" s="29" t="s">
+      <c r="A201" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B201" s="27"/>
-      <c r="C201" s="27"/>
-      <c r="D201" s="27"/>
-      <c r="E201" s="27"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
       <c r="F201" s="6"/>
       <c r="G201" s="7"/>
       <c r="H201" s="8"/>
       <c r="I201" s="6"/>
       <c r="J201" s="8"/>
-      <c r="K201" s="28">
+      <c r="K201" s="11">
         <v>10261250</v>
       </c>
-      <c r="L201" s="28"/>
-      <c r="M201" s="28"/>
+      <c r="L201" s="11"/>
+      <c r="M201" s="11"/>
       <c r="N201" s="6"/>
       <c r="O201" s="7"/>
       <c r="P201" s="8"/>
@@ -1619,13 +1743,13 @@
       <c r="T201" s="8"/>
     </row>
     <row r="202" spans="1:20" ht="10.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A202" s="29" t="s">
+      <c r="A202" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B202" s="27"/>
-      <c r="C202" s="27"/>
-      <c r="D202" s="27"/>
-      <c r="E202" s="27"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="10"/>
       <c r="F202" s="6"/>
       <c r="G202" s="7"/>
       <c r="H202" s="8"/>
@@ -1634,43 +1758,26 @@
       <c r="K202" s="6"/>
       <c r="L202" s="7"/>
       <c r="M202" s="8"/>
-      <c r="N202" s="28">
+      <c r="N202" s="11">
         <v>884235</v>
       </c>
-      <c r="O202" s="28"/>
-      <c r="P202" s="28"/>
+      <c r="O202" s="11"/>
+      <c r="P202" s="11"/>
       <c r="Q202" s="6"/>
       <c r="R202" s="8"/>
       <c r="S202" s="6"/>
       <c r="T202" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A202:E202"/>
-    <mergeCell ref="N202:P202"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="N199:P199"/>
-    <mergeCell ref="A200:E200"/>
-    <mergeCell ref="N200:P200"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="K201:M201"/>
-    <mergeCell ref="A198:E198"/>
-    <mergeCell ref="N198:P198"/>
-    <mergeCell ref="N195:P195"/>
-    <mergeCell ref="A196:E196"/>
-    <mergeCell ref="N196:P196"/>
-    <mergeCell ref="A197:E197"/>
-    <mergeCell ref="K197:M197"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="K193:M193"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="K194:M194"/>
-    <mergeCell ref="A195:E195"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="F192:H192"/>
-    <mergeCell ref="K192:M192"/>
-    <mergeCell ref="N192:P192"/>
-    <mergeCell ref="Q192:R192"/>
+  <mergeCells count="47">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:S4"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="F188:J188"/>
+    <mergeCell ref="K188:P188"/>
+    <mergeCell ref="Q188:T188"/>
     <mergeCell ref="Q189:R190"/>
     <mergeCell ref="S189:T190"/>
     <mergeCell ref="A190:E190"/>
@@ -1684,16 +1791,288 @@
     <mergeCell ref="I189:J190"/>
     <mergeCell ref="K189:M190"/>
     <mergeCell ref="N189:P190"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:S4"/>
-    <mergeCell ref="A188:E188"/>
-    <mergeCell ref="F188:J188"/>
-    <mergeCell ref="K188:P188"/>
-    <mergeCell ref="Q188:T188"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="F192:H192"/>
+    <mergeCell ref="K192:M192"/>
+    <mergeCell ref="N192:P192"/>
+    <mergeCell ref="Q192:R192"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="K193:M193"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="K194:M194"/>
+    <mergeCell ref="A195:E195"/>
+    <mergeCell ref="I193:J193"/>
+    <mergeCell ref="A198:E198"/>
+    <mergeCell ref="N198:P198"/>
+    <mergeCell ref="N195:P195"/>
+    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="N196:P196"/>
+    <mergeCell ref="A197:E197"/>
+    <mergeCell ref="K197:M197"/>
+    <mergeCell ref="A202:E202"/>
+    <mergeCell ref="N202:P202"/>
+    <mergeCell ref="A199:E199"/>
+    <mergeCell ref="N199:P199"/>
+    <mergeCell ref="A200:E200"/>
+    <mergeCell ref="N200:P200"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="K201:M201"/>
   </mergeCells>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="69.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>